--- a/backend/fms_core/tests/test_services/templates/Library_preparation_v3_10_0.xlsx
+++ b/backend/fms_core/tests/test_services/templates/Library_preparation_v3_10_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ckostiw/C3G/repos/freezeman/backend/fms_core/tests/test_services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27F60FB-44EF-3348-8E1E-AD7DEB2DFB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9A7CDD-7E7E-8447-8457-39FCD373E82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-3100" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="2468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="2464">
   <si>
     <t>Library Preparation Template</t>
   </si>
@@ -7348,18 +7348,9 @@
     <t>2</t>
   </si>
   <si>
-    <t>Library 1 Comment</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>Library 2 Comment</t>
-  </si>
-  <si>
-    <t>Library 3 Comment</t>
-  </si>
-  <si>
     <t>Eppendorf 1 Pre-PCR</t>
   </si>
   <si>
@@ -7378,9 +7369,6 @@
     <t>3.10.0</t>
   </si>
   <si>
-    <t>Library 4 Comment</t>
-  </si>
-  <si>
     <t>batch_3</t>
   </si>
   <si>
@@ -7459,9 +7447,6 @@
     <t>202</t>
   </si>
   <si>
-    <t>RNA</t>
-  </si>
-  <si>
     <t>IDT_10nt_UDI_Tr_Seq_Adapter</t>
   </si>
   <si>
@@ -7472,6 +7457,9 @@
   </si>
   <si>
     <t>IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_004</t>
+  </si>
+  <si>
+    <t>Experiment Run Info Test</t>
   </si>
 </sst>
 </file>
@@ -7560,6 +7548,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -8268,7 +8257,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -8472,7 +8461,7 @@
         <v>2425</v>
       </c>
       <c r="L12" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>2425</v>
@@ -8489,7 +8478,7 @@
     </row>
     <row r="13" spans="1:1028" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>55</v>
@@ -8501,7 +8490,7 @@
         <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>34</v>
@@ -8519,7 +8508,7 @@
         <v>53</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="L13" t="s">
         <v>2415</v>
@@ -8531,10 +8520,10 @@
         <v>42</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="14" spans="1:1028" x14ac:dyDescent="0.2">
@@ -10553,8 +10542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10644,7 +10633,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>19</v>
@@ -10694,22 +10683,22 @@
         <v>2418</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>2439</v>
+        <v>2435</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>2446</v>
+        <v>2442</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="29"/>
@@ -10721,7 +10710,7 @@
         <v>200</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>2464</v>
+        <v>2459</v>
       </c>
       <c r="N5" s="32" t="s">
         <v>80</v>
@@ -10730,7 +10719,7 @@
         <v>1248</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>2426</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -10738,22 +10727,22 @@
         <v>2418</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>2440</v>
+        <v>2436</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="H6" s="20"/>
       <c r="J6" s="20"/>
@@ -10761,19 +10750,19 @@
         <v>212</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="M6" s="33" t="s">
         <v>2459</v>
       </c>
-      <c r="M6" s="33" t="s">
-        <v>2464</v>
-      </c>
       <c r="N6" t="s">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>2428</v>
+      <c r="P6" s="29" t="s">
+        <v>2463</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -10781,22 +10770,22 @@
         <v>2422</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>2441</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>2445</v>
-      </c>
       <c r="D7" s="31" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="F7" s="29" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>2454</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>2458</v>
       </c>
       <c r="H7" s="20"/>
       <c r="J7" s="20"/>
@@ -10804,19 +10793,19 @@
         <v>197</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>2460</v>
+        <v>2456</v>
       </c>
       <c r="M7" s="33" t="s">
-        <v>2464</v>
+        <v>2459</v>
       </c>
       <c r="N7" t="s">
-        <v>2466</v>
+        <v>2461</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>2429</v>
+      <c r="P7" s="29" t="s">
+        <v>2463</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -10824,22 +10813,22 @@
         <v>2422</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="C8" s="31" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>2445</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>2449</v>
-      </c>
       <c r="E8" s="31" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="H8" s="20"/>
       <c r="J8" s="20"/>
@@ -10847,42 +10836,42 @@
         <v>214</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>2464</v>
+        <v>2459</v>
       </c>
       <c r="N8" t="s">
-        <v>2467</v>
+        <v>2462</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>2436</v>
+      <c r="P8" s="29" t="s">
+        <v>2463</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>2450</v>
+        <v>2446</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="H9" s="20"/>
       <c r="J9" s="20"/>
@@ -10890,7 +10879,7 @@
         <v>237</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>2406</v>
@@ -10901,31 +10890,31 @@
       <c r="O9" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="29" t="s">
         <v>2463</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="H10" s="20"/>
       <c r="J10" s="20"/>
@@ -10933,7 +10922,7 @@
         <v>262</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>2406</v>
@@ -10944,7 +10933,7 @@
       <c r="O10" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="29" t="s">
         <v>2463</v>
       </c>
     </row>
@@ -14030,7 +14019,7 @@
         <v>32</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -14108,7 +14097,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -14183,7 +14172,7 @@
         <v>1635</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -14253,7 +14242,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>47</v>
